--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H2">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I2">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J2">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>115.3810875415965</v>
+        <v>123.3922313762183</v>
       </c>
       <c r="R2">
-        <v>461.5243501663861</v>
+        <v>493.5689255048731</v>
       </c>
       <c r="S2">
-        <v>0.02656773488830085</v>
+        <v>0.01386703054312693</v>
       </c>
       <c r="T2">
-        <v>0.01482750923993833</v>
+        <v>0.007212806528306579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H3">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I3">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J3">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>27.586943793591</v>
+        <v>18.9514216778285</v>
       </c>
       <c r="R3">
-        <v>165.521662761546</v>
+        <v>113.708530066971</v>
       </c>
       <c r="S3">
-        <v>0.006352190161341243</v>
+        <v>0.002129793264219839</v>
       </c>
       <c r="T3">
-        <v>0.005317756220494061</v>
+        <v>0.001661688136367685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H4">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I4">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J4">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>5.202331392492001</v>
+        <v>7.999098920596667</v>
       </c>
       <c r="R4">
-        <v>31.213988354952</v>
+        <v>47.99459352358</v>
       </c>
       <c r="S4">
-        <v>0.001197892689189503</v>
+        <v>0.0008989524527780463</v>
       </c>
       <c r="T4">
-        <v>0.001002819679138323</v>
+        <v>0.0007013725937794694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H5">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I5">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J5">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>12.715763856315</v>
+        <v>11.70037782346325</v>
       </c>
       <c r="R5">
-        <v>50.86305542526001</v>
+        <v>46.801511293853</v>
       </c>
       <c r="S5">
-        <v>0.002927941227066549</v>
+        <v>0.001314908522477378</v>
       </c>
       <c r="T5">
-        <v>0.001634090214346542</v>
+        <v>0.0006839373970912279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H6">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I6">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J6">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>83.18191528329803</v>
+        <v>215.8052679354182</v>
       </c>
       <c r="R6">
-        <v>499.0914916997881</v>
+        <v>1294.831607612509</v>
       </c>
       <c r="S6">
-        <v>0.01915352957607582</v>
+        <v>0.02425256605258946</v>
       </c>
       <c r="T6">
-        <v>0.01603443827413506</v>
+        <v>0.01892211885683837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H7">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I7">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J7">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>7.420915255260002</v>
+        <v>2.3025598869015</v>
       </c>
       <c r="R7">
-        <v>44.52549153156001</v>
+        <v>13.815359321409</v>
       </c>
       <c r="S7">
-        <v>0.00170874545673889</v>
+        <v>0.0002587656282970492</v>
       </c>
       <c r="T7">
-        <v>0.00143048170017246</v>
+        <v>0.0002018917900928027</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I8">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J8">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>1682.3291506852</v>
+        <v>2618.942449809781</v>
       </c>
       <c r="R8">
-        <v>10093.9749041112</v>
+        <v>15713.65469885869</v>
       </c>
       <c r="S8">
-        <v>0.3873743593736825</v>
+        <v>0.2943212432189095</v>
       </c>
       <c r="T8">
-        <v>0.3242916784443916</v>
+        <v>0.229632672031668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I9">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J9">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>402.2350691185913</v>
@@ -1013,10 +1013,10 @@
         <v>3620.115622067322</v>
       </c>
       <c r="S9">
-        <v>0.09261894567658217</v>
+        <v>0.04520386678135154</v>
       </c>
       <c r="T9">
-        <v>0.1163043679417931</v>
+        <v>0.05290283128210027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I10">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J10">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>75.853278380296</v>
+        <v>169.7771366132844</v>
       </c>
       <c r="R10">
-        <v>682.679505422664</v>
+        <v>1527.99422951956</v>
       </c>
       <c r="S10">
-        <v>0.01746603220124494</v>
+        <v>0.01907984573001895</v>
       </c>
       <c r="T10">
-        <v>0.02193261671008647</v>
+        <v>0.02232945832766908</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I11">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J11">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>185.4038704653034</v>
+        <v>248.3350517201743</v>
       </c>
       <c r="R11">
-        <v>1112.42322279182</v>
+        <v>1490.010310321046</v>
       </c>
       <c r="S11">
-        <v>0.04269123287654265</v>
+        <v>0.02790831893324826</v>
       </c>
       <c r="T11">
-        <v>0.03573910154192558</v>
+        <v>0.02177437747429998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I12">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J12">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>1212.844876682835</v>
+        <v>4580.365966196227</v>
       </c>
       <c r="R12">
-        <v>10915.60389014552</v>
+        <v>41223.29369576604</v>
       </c>
       <c r="S12">
-        <v>0.2792705618477276</v>
+        <v>0.5147493812498134</v>
       </c>
       <c r="T12">
-        <v>0.3506883601749068</v>
+        <v>0.6024196956544121</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I13">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J13">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>108.2016327345467</v>
+        <v>48.870757613982</v>
       </c>
       <c r="R13">
-        <v>973.8146946109201</v>
+        <v>439.8368185258381</v>
       </c>
       <c r="S13">
-        <v>0.02491458829365229</v>
+        <v>0.005492179539509121</v>
       </c>
       <c r="T13">
-        <v>0.0312859903862615</v>
+        <v>0.006427588351125722</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H14">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I14">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J14">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>1.1209483492285</v>
+        <v>1.9699105678925</v>
       </c>
       <c r="R14">
-        <v>6.725690095371</v>
+        <v>11.819463407355</v>
       </c>
       <c r="S14">
-        <v>0.0002581103992025103</v>
+        <v>0.0002213819274319295</v>
       </c>
       <c r="T14">
-        <v>0.0002160779425790272</v>
+        <v>0.0001727246153887157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H15">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I15">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J15">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>0.2680121999589999</v>
+        <v>0.3025523197316666</v>
       </c>
       <c r="R15">
-        <v>2.412109799631</v>
+        <v>2.722970877584999</v>
       </c>
       <c r="S15">
-        <v>6.171268816281484E-05</v>
+        <v>3.400134847890866E-05</v>
       </c>
       <c r="T15">
-        <v>7.749446010569202E-05</v>
+        <v>3.979233924044895E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H16">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I16">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J16">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.050541600108</v>
+        <v>0.1277026059222222</v>
       </c>
       <c r="R16">
-        <v>0.454874400972</v>
+        <v>1.1493234533</v>
       </c>
       <c r="S16">
-        <v>1.16377463682319E-05</v>
+        <v>1.435143782562035E-05</v>
       </c>
       <c r="T16">
-        <v>1.46138646443946E-05</v>
+        <v>1.679572452544169E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H17">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I17">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J17">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.123535969435</v>
+        <v>0.1867921316091667</v>
       </c>
       <c r="R17">
-        <v>0.74121581661</v>
+        <v>1.120752789655</v>
       </c>
       <c r="S17">
-        <v>2.844548404811217E-05</v>
+        <v>2.099202004332442E-05</v>
       </c>
       <c r="T17">
-        <v>2.381322754825616E-05</v>
+        <v>1.637820498843698E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H18">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I18">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J18">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>0.8081275069353335</v>
+        <v>3.445249941357222</v>
       </c>
       <c r="R18">
-        <v>7.273147562418001</v>
+        <v>31.007249472215</v>
       </c>
       <c r="S18">
-        <v>0.0001860800397852132</v>
+        <v>0.0003871830959912015</v>
       </c>
       <c r="T18">
-        <v>0.0002336662467458305</v>
+        <v>0.0004531267668223878</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H19">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I19">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J19">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.07209554774000002</v>
+        <v>0.036759502635</v>
       </c>
       <c r="R19">
-        <v>0.6488599296600001</v>
+        <v>0.330835523715</v>
       </c>
       <c r="S19">
-        <v>1.660077435387861E-05</v>
+        <v>4.131095937762127E-06</v>
       </c>
       <c r="T19">
-        <v>2.084608666691343E-05</v>
+        <v>4.83468975038567E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H20">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I20">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J20">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>128.448678491549</v>
+        <v>142.7307597579533</v>
       </c>
       <c r="R20">
-        <v>513.7947139661961</v>
+        <v>570.923039031813</v>
       </c>
       <c r="S20">
-        <v>0.02957668808318156</v>
+        <v>0.01604032752250492</v>
       </c>
       <c r="T20">
-        <v>0.01650681240549657</v>
+        <v>0.008343226670676284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H21">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I21">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J21">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>30.711328428326</v>
+        <v>21.9215649510585</v>
       </c>
       <c r="R21">
-        <v>184.267970569956</v>
+        <v>131.529389706351</v>
       </c>
       <c r="S21">
-        <v>0.007071613287204871</v>
+        <v>0.002463583058179927</v>
       </c>
       <c r="T21">
-        <v>0.005920023581130003</v>
+        <v>0.001922114605913905</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H22">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I22">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J22">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>5.791526208312001</v>
+        <v>9.25274997933</v>
       </c>
       <c r="R22">
-        <v>34.749157249872</v>
+        <v>55.51649987598</v>
       </c>
       <c r="S22">
-        <v>0.001333561124959998</v>
+        <v>0.001039839908398118</v>
       </c>
       <c r="T22">
-        <v>0.001116394942145078</v>
+        <v>0.000811294536674081</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H23">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I23">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J23">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>14.15589936059</v>
+        <v>13.53410824629825</v>
       </c>
       <c r="R23">
-        <v>56.62359744236001</v>
+        <v>54.136432985193</v>
       </c>
       <c r="S23">
-        <v>0.003259547897587955</v>
+        <v>0.0015209862916992</v>
       </c>
       <c r="T23">
-        <v>0.001819160601109039</v>
+        <v>0.0007911268256108569</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H24">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I24">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J24">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>92.60275943129469</v>
+        <v>249.6271402879215</v>
       </c>
       <c r="R24">
-        <v>555.6165565877681</v>
+        <v>1497.762841727529</v>
       </c>
       <c r="S24">
-        <v>0.02132278014461239</v>
+        <v>0.02805352606204024</v>
       </c>
       <c r="T24">
-        <v>0.01785043329500986</v>
+        <v>0.02188766967372762</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H25">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I25">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J25">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>8.261377822360002</v>
+        <v>2.6634263630715</v>
       </c>
       <c r="R25">
-        <v>49.56826693416001</v>
+        <v>15.980558178429</v>
       </c>
       <c r="S25">
-        <v>0.001902270991486546</v>
+        <v>0.0002993204216679748</v>
       </c>
       <c r="T25">
-        <v>0.0015924922178191</v>
+        <v>0.0002335330860577401</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H26">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I26">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J26">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>62.7099651536085</v>
+        <v>0.468059173427</v>
       </c>
       <c r="R26">
-        <v>376.259790921651</v>
+        <v>2.808355040562</v>
       </c>
       <c r="S26">
-        <v>0.01443964313869911</v>
+        <v>5.260129249234003E-05</v>
       </c>
       <c r="T26">
-        <v>0.01208819323291769</v>
+        <v>4.104010711299995E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H27">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I27">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J27">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>14.993586218079</v>
+        <v>0.07188772475266665</v>
       </c>
       <c r="R27">
-        <v>134.942275962711</v>
+        <v>0.6469895227739999</v>
       </c>
       <c r="S27">
-        <v>0.003452434295379603</v>
+        <v>8.078865773824233E-06</v>
       </c>
       <c r="T27">
-        <v>0.004335324545658461</v>
+        <v>9.454829938567904E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H28">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I28">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J28">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>2.827482625548</v>
+        <v>0.03034268516888889</v>
       </c>
       <c r="R28">
-        <v>25.447343629932</v>
+        <v>0.27308416652</v>
       </c>
       <c r="S28">
-        <v>0.0006510582487771606</v>
+        <v>3.409962987982414E-06</v>
       </c>
       <c r="T28">
-        <v>0.0008175532291387722</v>
+        <v>3.990735958585323E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H29">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I29">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J29">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>6.911055575235</v>
+        <v>0.04438260911366667</v>
       </c>
       <c r="R29">
-        <v>41.46633345140999</v>
+        <v>0.266295654682</v>
       </c>
       <c r="S29">
-        <v>0.001591344788243243</v>
+        <v>4.987793715200596E-06</v>
       </c>
       <c r="T29">
-        <v>0.001332199356708884</v>
+        <v>3.891531531457891E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H30">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I30">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J30">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>45.209619010962</v>
+        <v>0.8186061164828889</v>
       </c>
       <c r="R30">
-        <v>406.886571098658</v>
+        <v>7.367455048346001</v>
       </c>
       <c r="S30">
-        <v>0.01041000044180815</v>
+        <v>9.199635903696425E-05</v>
       </c>
       <c r="T30">
-        <v>0.01307214752677112</v>
+        <v>0.0001076648571734094</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H31">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I31">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J31">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>4.03328957094</v>
+        <v>0.008734214994000001</v>
       </c>
       <c r="R31">
-        <v>36.29960613846</v>
+        <v>0.078607934946</v>
       </c>
       <c r="S31">
-        <v>0.000928708251340165</v>
+        <v>9.81566057613077E-07</v>
       </c>
       <c r="T31">
-        <v>0.001166206604765484</v>
+        <v>1.148742955758891E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H32">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I32">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J32">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>2.498596240699</v>
+        <v>0.7551873533375</v>
       </c>
       <c r="R32">
-        <v>14.991577444194</v>
+        <v>4.531124120025</v>
       </c>
       <c r="S32">
-        <v>0.0005753286256022202</v>
+        <v>8.486924969032236E-05</v>
       </c>
       <c r="T32">
-        <v>0.0004816381909099697</v>
+        <v>6.621592232544439E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H33">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I33">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J33">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>0.5973997604259998</v>
+        <v>0.1159868317416666</v>
       </c>
       <c r="R33">
-        <v>5.376597843833999</v>
+        <v>1.043881485675</v>
       </c>
       <c r="S33">
-        <v>0.000137557712407681</v>
+        <v>1.303479903413275E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001727353154392403</v>
+        <v>1.525484041960959E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H34">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I34">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J34">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>0.112657333512</v>
+        <v>0.04895622905555555</v>
       </c>
       <c r="R34">
-        <v>1.013916001608</v>
+        <v>0.4406060615</v>
       </c>
       <c r="S34">
-        <v>2.594056126304642E-05</v>
+        <v>5.501784966671319E-06</v>
       </c>
       <c r="T34">
-        <v>3.257433519367727E-05</v>
+        <v>6.438829741049558E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H35">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I35">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J35">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>0.27536193709</v>
+        <v>0.07160886275416666</v>
       </c>
       <c r="R35">
-        <v>1.65217162254</v>
+        <v>0.429653176525</v>
       </c>
       <c r="S35">
-        <v>6.340504409181156E-05</v>
+        <v>8.047526784267209E-06</v>
       </c>
       <c r="T35">
-        <v>5.307973455862951E-05</v>
+        <v>6.278768934606646E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H36">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I36">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J36">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>1.801317921761334</v>
+        <v>1.320775281480556</v>
       </c>
       <c r="R36">
-        <v>16.211861295852</v>
+        <v>11.886977533325</v>
       </c>
       <c r="S36">
-        <v>0.0004147728021513669</v>
+        <v>0.0001484309908705312</v>
       </c>
       <c r="T36">
-        <v>0.0005208425580886104</v>
+        <v>0.0001737112381345687</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H37">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I37">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J37">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>0.16070112836</v>
+        <v>0.014092168425</v>
       </c>
       <c r="R37">
-        <v>1.44631015524</v>
+        <v>0.126829515825</v>
       </c>
       <c r="S37">
-        <v>3.700316113747916E-05</v>
+        <v>1.583702051489338E-06</v>
       </c>
       <c r="T37">
-        <v>4.646597126003524E-05</v>
+        <v>1.853432646289015E-06</v>
       </c>
     </row>
   </sheetData>
